--- a/Clase_03/Base_Transporte.xlsx
+++ b/Clase_03/Base_Transporte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2024-I/Series-Tiempo-2023/Clase_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6347D39-3B08-594F-9F66-F0F212992361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3423B57-781C-694E-92F7-22BC243FEC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="500" windowWidth="16000" windowHeight="18880" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:F271"/>
+  <dimension ref="A1:F282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="C266" sqref="C266"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5478,10 +5478,10 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>2685767</v>
+        <v>2747947</v>
       </c>
       <c r="C254">
-        <v>1185142</v>
+        <v>833950</v>
       </c>
       <c r="D254">
         <v>26930</v>
@@ -5498,10 +5498,10 @@
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>2214034</v>
+        <v>2250155</v>
       </c>
       <c r="C255">
-        <v>712193</v>
+        <v>642682</v>
       </c>
       <c r="D255">
         <v>20717</v>
@@ -5518,10 +5518,10 @@
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>3162379</v>
+        <v>3215499</v>
       </c>
       <c r="C256">
-        <v>1130645</v>
+        <v>1091295</v>
       </c>
       <c r="D256">
         <v>26010</v>
@@ -5538,10 +5538,10 @@
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>3452944</v>
+        <v>3523462</v>
       </c>
       <c r="C257">
-        <v>1377367</v>
+        <v>1234685</v>
       </c>
       <c r="D257">
         <v>29349</v>
@@ -5558,10 +5558,10 @@
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>3784266</v>
+        <v>3868612</v>
       </c>
       <c r="C258">
-        <v>1656557</v>
+        <v>1596997</v>
       </c>
       <c r="D258">
         <v>30076</v>
@@ -5578,10 +5578,10 @@
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>3791459</v>
+        <v>3885189</v>
       </c>
       <c r="C259">
-        <v>1844126</v>
+        <v>1783107</v>
       </c>
       <c r="D259">
         <v>30069</v>
@@ -5598,10 +5598,10 @@
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>4352913</v>
+        <v>4446637</v>
       </c>
       <c r="C260">
-        <v>2117022</v>
+        <v>1970731</v>
       </c>
       <c r="D260">
         <v>34437</v>
@@ -5618,10 +5618,10 @@
         <v>44409</v>
       </c>
       <c r="B261">
-        <v>3961404</v>
+        <v>4061957</v>
       </c>
       <c r="C261">
-        <v>1954690</v>
+        <v>1628732</v>
       </c>
       <c r="D261">
         <v>34324</v>
@@ -5638,10 +5638,10 @@
         <v>44440</v>
       </c>
       <c r="B262">
-        <v>3577845</v>
+        <v>3653971</v>
       </c>
       <c r="C262">
-        <v>1483917</v>
+        <v>1392808</v>
       </c>
       <c r="D262">
         <v>30171</v>
@@ -5658,10 +5658,10 @@
         <v>44470</v>
       </c>
       <c r="B263">
-        <v>4118307</v>
+        <v>4204904</v>
       </c>
       <c r="C263">
-        <v>1719971</v>
+        <v>1731069</v>
       </c>
       <c r="D263">
         <v>32974</v>
@@ -5678,10 +5678,10 @@
         <v>44501</v>
       </c>
       <c r="B264">
-        <v>4313721</v>
+        <v>4395259</v>
       </c>
       <c r="C264">
-        <v>1924449</v>
+        <v>1973833</v>
       </c>
       <c r="D264">
         <v>33291</v>
@@ -5698,10 +5698,10 @@
         <v>44531</v>
       </c>
       <c r="B265">
-        <v>4681213</v>
+        <v>4768202</v>
       </c>
       <c r="C265">
-        <v>2034286</v>
+        <v>2386847</v>
       </c>
       <c r="D265">
         <v>36234</v>
@@ -5718,10 +5718,10 @@
         <v>44562</v>
       </c>
       <c r="B266">
-        <v>3767905</v>
+        <v>3854676</v>
       </c>
       <c r="C266">
-        <v>2094697</v>
+        <v>1839209</v>
       </c>
       <c r="D266">
         <v>33193</v>
@@ -5738,10 +5738,10 @@
         <v>44593</v>
       </c>
       <c r="B267">
-        <v>3535885</v>
+        <v>3612447</v>
       </c>
       <c r="C267">
-        <v>1838837</v>
+        <v>1820772</v>
       </c>
       <c r="D267">
         <v>28461</v>
@@ -5758,10 +5758,10 @@
         <v>44621</v>
       </c>
       <c r="B268">
-        <v>4438186</v>
+        <v>4549465</v>
       </c>
       <c r="C268">
-        <v>2440988</v>
+        <v>2310789</v>
       </c>
       <c r="D268">
         <v>33596</v>
@@ -5778,16 +5778,16 @@
         <v>44652</v>
       </c>
       <c r="B269">
-        <v>4701502</v>
+        <v>4778420</v>
       </c>
       <c r="C269">
-        <v>2325751</v>
+        <v>2136321</v>
       </c>
       <c r="D269">
-        <v>35540</v>
+        <v>35439</v>
       </c>
       <c r="E269">
-        <v>16314</v>
+        <v>15984</v>
       </c>
       <c r="F269">
         <v>82.897273999999996</v>
@@ -5798,10 +5798,10 @@
         <v>44682</v>
       </c>
       <c r="B270">
-        <v>4424819</v>
+        <v>4908699</v>
       </c>
       <c r="C270">
-        <v>2045556</v>
+        <v>2076840</v>
       </c>
       <c r="D270">
         <v>35713</v>
@@ -5818,19 +5818,239 @@
         <v>44713</v>
       </c>
       <c r="B271">
-        <v>4224212</v>
+        <v>4701641</v>
       </c>
       <c r="C271">
-        <v>2084684</v>
+        <v>2243517</v>
       </c>
       <c r="D271">
-        <v>35135</v>
+        <v>35136</v>
       </c>
       <c r="E271">
         <v>15424</v>
       </c>
       <c r="F271">
         <v>88.424030000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B272">
+        <v>5372852</v>
+      </c>
+      <c r="C272">
+        <v>2430787</v>
+      </c>
+      <c r="D272">
+        <v>39412</v>
+      </c>
+      <c r="E272">
+        <v>16281</v>
+      </c>
+      <c r="F272">
+        <v>80.680661999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B273">
+        <v>5261481</v>
+      </c>
+      <c r="C273">
+        <v>2110618</v>
+      </c>
+      <c r="D273">
+        <v>39083</v>
+      </c>
+      <c r="E273">
+        <v>15507</v>
+      </c>
+      <c r="F273">
+        <v>90.184646999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B274">
+        <v>4704494</v>
+      </c>
+      <c r="C274">
+        <v>1797014</v>
+      </c>
+      <c r="D274">
+        <v>35544</v>
+      </c>
+      <c r="E274">
+        <v>13085</v>
+      </c>
+      <c r="F274">
+        <v>88.794501999999994</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B275">
+        <v>5162631</v>
+      </c>
+      <c r="C275">
+        <v>2089547</v>
+      </c>
+      <c r="D275">
+        <v>37767</v>
+      </c>
+      <c r="E275">
+        <v>13887</v>
+      </c>
+      <c r="F275">
+        <v>95.094480000000004</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B276">
+        <v>5183061</v>
+      </c>
+      <c r="C276">
+        <v>2316023</v>
+      </c>
+      <c r="D276">
+        <v>37393</v>
+      </c>
+      <c r="E276">
+        <v>15736</v>
+      </c>
+      <c r="F276">
+        <v>91.831197000000003</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B277">
+        <v>5456045</v>
+      </c>
+      <c r="C277">
+        <v>2709516</v>
+      </c>
+      <c r="D277">
+        <v>39644</v>
+      </c>
+      <c r="E277">
+        <v>17827</v>
+      </c>
+      <c r="F277">
+        <v>89.981292999999994</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B278">
+        <v>5058367</v>
+      </c>
+      <c r="C278">
+        <v>2533314</v>
+      </c>
+      <c r="D278">
+        <v>38226</v>
+      </c>
+      <c r="E278">
+        <v>17747</v>
+      </c>
+      <c r="F278">
+        <v>87.266174000000007</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B279">
+        <v>4515723</v>
+      </c>
+      <c r="C279">
+        <v>2277995</v>
+      </c>
+      <c r="D279">
+        <v>33571</v>
+      </c>
+      <c r="E279">
+        <v>15756</v>
+      </c>
+      <c r="F279">
+        <v>86.696037000000004</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B280">
+        <v>5287795</v>
+      </c>
+      <c r="C280">
+        <v>2555185</v>
+      </c>
+      <c r="D280">
+        <v>37190</v>
+      </c>
+      <c r="E280">
+        <v>17796</v>
+      </c>
+      <c r="F280">
+        <v>99.399033000000003</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B281">
+        <v>5428414</v>
+      </c>
+      <c r="C281">
+        <v>2302621</v>
+      </c>
+      <c r="D281">
+        <v>37443</v>
+      </c>
+      <c r="E281">
+        <v>16325</v>
+      </c>
+      <c r="F281">
+        <v>86.639757000000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B282">
+        <v>5351191</v>
+      </c>
+      <c r="C282">
+        <v>2161952</v>
+      </c>
+      <c r="D282">
+        <v>37841</v>
+      </c>
+      <c r="E282">
+        <v>15519</v>
+      </c>
+      <c r="F282">
+        <v>96.485574999999997</v>
       </c>
     </row>
   </sheetData>
